--- a/sql/data.xlsx
+++ b/sql/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaLearn\Java Web Development\2020-11-14 - Final Project\MovieRating\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9FEEA5-2580-4FF2-8ED2-77FBE90F060D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15FB556-8A72-49DE-B8FD-37098E6CC4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="182">
   <si>
     <t>title</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>8.5</t>
+  </si>
+  <si>
+    <t>blocked</t>
   </si>
 </sst>
 </file>
@@ -893,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1466,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA58C15A-7A8C-46DA-AFE5-EEEF529311AB}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,9 +1480,10 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1489,11 +1493,14 @@
       <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1503,12 +1510,15 @@
       <c r="C2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="str">
-        <f>CONCATENATE("INSERT INTO accounts (user_name, password, role) VALUES ('",A2,"', '",B2,"', '",C2,"');")</f>
-        <v>INSERT INTO accounts (user_name, password, role) VALUES ('account1', 'password1', 'ADMIN');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE("INSERT INTO accounts (user_name, password, role, blocked) VALUES ('",A2,"', SHA1('",B2,"'), '",C2,"', ",D2,");")</f>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account1', SHA1('password1'), 'ADMIN', 0);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1518,12 +1528,15 @@
       <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E14" si="0">CONCATENATE("INSERT INTO accounts (user_name, password, role) VALUES ('",A3,"', '",B3,"', '",C3,"');")</f>
-        <v>INSERT INTO accounts (user_name, password, role) VALUES ('account2', 'password2', 'EDITOR');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F14" si="0">CONCATENATE("INSERT INTO accounts (user_name, password, role, blocked) VALUES ('",A3,"', SHA1('",B3,"'), '",C3,"', ",D3,");")</f>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account2', SHA1('password2'), 'EDITOR', 0);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1533,12 +1546,15 @@
       <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role) VALUES ('account3', 'password3', 'EDITOR');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account3', SHA1('password3'), 'EDITOR', 0);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1548,12 +1564,15 @@
       <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role) VALUES ('account4', 'password4', 'USER');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account4', SHA1('password4'), 'USER', 0);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1563,12 +1582,15 @@
       <c r="C6" t="s">
         <v>90</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role) VALUES ('account5', 'password5', 'USER');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account5', SHA1('password5'), 'USER', 0);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1578,12 +1600,15 @@
       <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role) VALUES ('account6', 'password6', 'USER');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account6', SHA1('password6'), 'USER', 0);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1593,12 +1618,15 @@
       <c r="C8" t="s">
         <v>90</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role) VALUES ('account7', 'password7', 'USER');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account7', SHA1('password7'), 'USER', 0);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1608,12 +1636,15 @@
       <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role) VALUES ('account8', 'password8', 'USER');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account8', SHA1('password8'), 'USER', 0);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1623,12 +1654,15 @@
       <c r="C10" t="s">
         <v>90</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role) VALUES ('account9', 'password9', 'USER');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account9', SHA1('password9'), 'USER', 0);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1638,12 +1672,15 @@
       <c r="C11" t="s">
         <v>90</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role) VALUES ('account10', 'password10', 'USER');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account10', SHA1('password10'), 'USER', 0);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1653,12 +1690,15 @@
       <c r="C12" t="s">
         <v>90</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role) VALUES ('account11', 'password11', 'USER');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account11', SHA1('password11'), 'USER', 0);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1668,12 +1708,15 @@
       <c r="C13" t="s">
         <v>90</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role) VALUES ('account12', 'password12', 'USER');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account12', SHA1('password12'), 'USER', 0);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1683,9 +1726,12 @@
       <c r="C14" t="s">
         <v>90</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role) VALUES ('account13', 'password13', 'USER');</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account13', SHA1('password13'), 'USER', 0);</v>
       </c>
     </row>
   </sheetData>

--- a/sql/data.xlsx
+++ b/sql/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23604"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaLearn\Java Web Development\2020-11-14 - Final Project\MovieRating\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15FB556-8A72-49DE-B8FD-37098E6CC4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AE4E4E-0DF9-40ED-80E3-F34C6F28120D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +907,7 @@
     <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="64.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="9.140625" style="2"/>
@@ -930,7 +930,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -956,16 +956,16 @@
       <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <f>CONCATENATE("/static/img/poster/",A2,".jpg")</f>
-        <v>/static/img/poster/1.jpg</v>
+      <c r="F2" s="2" t="str">
+        <f>CONCATENATE("/static/img/posters/",A2)</f>
+        <v>/static/img/posters/1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>CONCATENATE("INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('",B2,"', '",C2,"', ",D2,", '",E2,"', '",F2,"', ",G2,");")</f>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('The Hitchhiker\'s Guide to the Galaxy', 'Garth Jennings', 2005, 'Mere seconds before the Earth is to be demolished by an alien construction crew, journeyman Arthur Dent is swept off the planet by his friend Ford Prefect, a researcher penning a new edition of "The Hitchhiker\'s Guide to the Galaxy." ', '/static/img/poster/1.jpg', 7.9);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('The Hitchhiker\'s Guide to the Galaxy', 'Garth Jennings', 2005, 'Mere seconds before the Earth is to be demolished by an alien construction crew, journeyman Arthur Dent is swept off the planet by his friend Ford Prefect, a researcher penning a new edition of "The Hitchhiker\'s Guide to the Galaxy." ', '/static/img/posters/1', 7.9);</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -985,16 +985,16 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F19" si="0">CONCATENATE("/static/img/poster/",A3,".jpg")</f>
-        <v>/static/img/poster/2.jpg</v>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F19" si="0">CONCATENATE("/static/img/posters/",A3)</f>
+        <v>/static/img/posters/2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>169</v>
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" ref="I3:I19" si="1">CONCATENATE("INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('",B3,"', '",C3,"', ",D3,", '",E3,"', '",F3,"', ",G3,");")</f>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('The Shawshank Redemption', 'Frank Darabont', 1994, 'Two imprisoned men bond over a number of years, finding solace and eventual redemption through acts of common decency.', '/static/img/poster/2.jpg', 8.3);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('The Shawshank Redemption', 'Frank Darabont', 1994, 'Two imprisoned men bond over a number of years, finding solace and eventual redemption through acts of common decency.', '/static/img/posters/2', 8.3);</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1014,16 +1014,16 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/3.jpg</v>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>170</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('The Godfather: Part II', 'Francis Ford Coppola', 1974, 'The early life and career of Vito Corleone in 1920s New York City is portrayed, while his son, Michael, expands and tightens his grip on the family crime syndicate.', '/static/img/poster/3.jpg', 8.8);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('The Godfather: Part II', 'Francis Ford Coppola', 1974, 'The early life and career of Vito Corleone in 1920s New York City is portrayed, while his son, Michael, expands and tightens his grip on the family crime syndicate.', '/static/img/posters/3', 8.8);</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1043,16 +1043,16 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/4.jpg</v>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>168</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('The Dark Knight', 'Christopher Nolan', 2008, 'When the menace known as the Joker wreaks havoc and chaos on the people of Gotham, Batman must accept one of the greatest psychological and physical tests of his ability to fight injustice.', '/static/img/poster/4.jpg', 7.9);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('The Dark Knight', 'Christopher Nolan', 2008, 'When the menace known as the Joker wreaks havoc and chaos on the people of Gotham, Batman must accept one of the greatest psychological and physical tests of his ability to fight injustice.', '/static/img/posters/4', 7.9);</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1072,16 +1072,16 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/5.jpg</v>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>171</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Schindler\'s List', 'Steven Spielberg', 1993, 'In German-occupied Poland during World War II, industrialist Oskar Schindler gradually becomes concerned for his Jewish workforce after witnessing their persecution by the Nazis.', '/static/img/poster/5.jpg', 8.6);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Schindler\'s List', 'Steven Spielberg', 1993, 'In German-occupied Poland during World War II, industrialist Oskar Schindler gradually becomes concerned for his Jewish workforce after witnessing their persecution by the Nazis.', '/static/img/posters/5', 8.6);</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1101,16 +1101,16 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/6.jpg</v>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>172</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Pulp Fiction', 'Quentin Tarantino', 1994, 'The lives of two mob hitmen, a boxer, a gangster and his wife, and a pair of diner bandits intertwine in four tales of violence and redemption.', '/static/img/poster/6.jpg', 7.4);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Pulp Fiction', 'Quentin Tarantino', 1994, 'The lives of two mob hitmen, a boxer, a gangster and his wife, and a pair of diner bandits intertwine in four tales of violence and redemption.', '/static/img/posters/6', 7.4);</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1130,16 +1130,16 @@
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/7.jpg</v>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/7</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>173</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Fight Club', 'David Fincher', 1999, 'An insomniac office worker and a devil-may-care soapmaker form an underground fight club that evolves into something much, much more.', '/static/img/poster/7.jpg', 9.5);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Fight Club', 'David Fincher', 1999, 'An insomniac office worker and a devil-may-care soapmaker form an underground fight club that evolves into something much, much more.', '/static/img/posters/7', 9.5);</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1159,16 +1159,16 @@
       <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/8.jpg</v>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>172</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Forrest Gump', 'Robert Zemeckis', 1994, 'The presidencies of Kennedy and Johnson, the events of Vietnam, Watergate and other historical events unfold through the perspective of an Alabama man with an IQ of 75, whose only desire is to be reunited with his childhood sweetheart.', '/static/img/poster/8.jpg', 7.4);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Forrest Gump', 'Robert Zemeckis', 1994, 'The presidencies of Kennedy and Johnson, the events of Vietnam, Watergate and other historical events unfold through the perspective of an Alabama man with an IQ of 75, whose only desire is to be reunited with his childhood sweetheart.', '/static/img/posters/8', 7.4);</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1188,16 +1188,16 @@
       <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/9.jpg</v>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/9</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>174</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Goodfellas', 'Martin Scorsese', 1990, 'The story of Henry Hill and his life in the mob, covering his relationship with his wife Karen Hill and his mob partners Jimmy Conway and Tommy DeVito in the Italian-American crime syndicate.', '/static/img/poster/9.jpg', 7.3);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Goodfellas', 'Martin Scorsese', 1990, 'The story of Henry Hill and his life in the mob, covering his relationship with his wife Karen Hill and his mob partners Jimmy Conway and Tommy DeVito in the Italian-American crime syndicate.', '/static/img/posters/9', 7.3);</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1217,16 +1217,16 @@
       <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/10.jpg</v>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/10</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>175</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('One Flew Over the Cuckoo\'s Nest', 'Milos Forman', 1975, 'A criminal pleads insanity and is admitted to a mental institution, where he rebels against the oppressive nurse and rallies up the scared patients.', '/static/img/poster/10.jpg', 8.9);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('One Flew Over the Cuckoo\'s Nest', 'Milos Forman', 1975, 'A criminal pleads insanity and is admitted to a mental institution, where he rebels against the oppressive nurse and rallies up the scared patients.', '/static/img/posters/10', 8.9);</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1246,16 +1246,16 @@
       <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/11.jpg</v>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/11</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>171</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Léon', 'Luc Besson', 1994, 'Mathilda, a 12-year-old girl, is reluctantly taken in by Léon, a professional assassin, after her family is murdered. An unusual relationship forms as she becomes his protégée and learns the assassin\'s trade.', '/static/img/poster/11.jpg', 8.6);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Léon', 'Luc Besson', 1994, 'Mathilda, a 12-year-old girl, is reluctantly taken in by Léon, a professional assassin, after her family is murdered. An unusual relationship forms as she becomes his protégée and learns the assassin\'s trade.', '/static/img/posters/11', 8.6);</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1275,16 +1275,16 @@
       <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/12.jpg</v>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/12</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>176</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('The Usual Suspects', 'Bryan Singer', 1995, 'A sole survivor tells of the twisty events leading up to a horrific gun battle on a boat, which began when five criminals met at a seemingly random police lineup.', '/static/img/poster/12.jpg', 7.6);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('The Usual Suspects', 'Bryan Singer', 1995, 'A sole survivor tells of the twisty events leading up to a horrific gun battle on a boat, which began when five criminals met at a seemingly random police lineup.', '/static/img/posters/12', 7.6);</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1304,16 +1304,16 @@
       <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/13.jpg</v>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/13</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>177</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Whiplash', 'Damien Chazelle', 2014, 'A promising young drummer enrolls at a cut-throat music conservatory where his dreams of greatness are mentored by an instructor who will stop at nothing to realize a student\'s potential.', '/static/img/poster/13.jpg', 7.7);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Whiplash', 'Damien Chazelle', 2014, 'A promising young drummer enrolls at a cut-throat music conservatory where his dreams of greatness are mentored by an instructor who will stop at nothing to realize a student\'s potential.', '/static/img/posters/13', 7.7);</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1333,16 +1333,16 @@
       <c r="E15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/14.jpg</v>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/14</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>178</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Apocalypse Now', 'Francis Ford Coppola', 1979, 'A U.S. Army officer serving in Vietnam is tasked with assassinating a renegade Special Forces Colonel who sees himself as a god.', '/static/img/poster/14.jpg', 8.0);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Apocalypse Now', 'Francis Ford Coppola', 1979, 'A U.S. Army officer serving in Vietnam is tasked with assassinating a renegade Special Forces Colonel who sees himself as a god.', '/static/img/posters/14', 8.0);</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1362,16 +1362,16 @@
       <c r="E16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/15.jpg</v>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/15</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>176</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Memento', 'Christopher Nolan', 2000, 'A man with short-term memory loss attempts to track down his wife\'s murderer.', '/static/img/poster/15.jpg', 7.6);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Memento', 'Christopher Nolan', 2000, 'A man with short-term memory loss attempts to track down his wife\'s murderer.', '/static/img/posters/15', 7.6);</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1391,16 +1391,16 @@
       <c r="E17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/16.jpg</v>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/16</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>179</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Eternal Sunshine of the Spotless Mind', 'Michel Gondry', 2004, 'When their relationship turns sour, a couple undergoes a medical procedure to have each other erased from their memories.', '/static/img/poster/16.jpg', 7.5);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Eternal Sunshine of the Spotless Mind', 'Michel Gondry', 2004, 'When their relationship turns sour, a couple undergoes a medical procedure to have each other erased from their memories.', '/static/img/posters/16', 7.5);</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1420,16 +1420,16 @@
       <c r="E18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/17.jpg</v>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/17</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>177</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Snatch', 'Guy Ritchie', 2000, 'Unscrupulous boxing promoters, violent bookmakers, a Russian gangster, incompetent amateur robbers and supposedly Jewish jewelers fight to track down a priceless stolen diamond.', '/static/img/poster/17.jpg', 7.7);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Snatch', 'Guy Ritchie', 2000, 'Unscrupulous boxing promoters, violent bookmakers, a Russian gangster, incompetent amateur robbers and supposedly Jewish jewelers fight to track down a priceless stolen diamond.', '/static/img/posters/17', 7.7);</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1449,16 +1449,16 @@
       <c r="E19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/static/img/poster/18.jpg</v>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/img/posters/18</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>180</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Scarface', 'Brian De Palma', 1983, 'In 1980 Miami, a determined Cuban immigrant takes over a drug cartel and succumbs to greed.', '/static/img/poster/18.jpg', 8.5);</v>
+        <v>INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('Scarface', 'Brian De Palma', 1983, 'In 1980 Miami, a determined Cuban immigrant takes over a drug cartel and succumbs to greed.', '/static/img/posters/18', 8.5);</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA58C15A-7A8C-46DA-AFE5-EEEF529311AB}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>

--- a/sql/data.xlsx
+++ b/sql/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaLearn\Java Web Development\2020-11-14 - Final Project\MovieRating\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AE4E4E-0DF9-40ED-80E3-F34C6F28120D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A949A9F-1BC5-40C8-896B-0A5A631C6D1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
@@ -217,84 +217,6 @@
     <t>role</t>
   </si>
   <si>
-    <t>account1</t>
-  </si>
-  <si>
-    <t>account2</t>
-  </si>
-  <si>
-    <t>account3</t>
-  </si>
-  <si>
-    <t>account4</t>
-  </si>
-  <si>
-    <t>account5</t>
-  </si>
-  <si>
-    <t>account6</t>
-  </si>
-  <si>
-    <t>account7</t>
-  </si>
-  <si>
-    <t>account8</t>
-  </si>
-  <si>
-    <t>account9</t>
-  </si>
-  <si>
-    <t>account10</t>
-  </si>
-  <si>
-    <t>account11</t>
-  </si>
-  <si>
-    <t>account12</t>
-  </si>
-  <si>
-    <t>account13</t>
-  </si>
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
-    <t>password2</t>
-  </si>
-  <si>
-    <t>password3</t>
-  </si>
-  <si>
-    <t>password4</t>
-  </si>
-  <si>
-    <t>password5</t>
-  </si>
-  <si>
-    <t>password6</t>
-  </si>
-  <si>
-    <t>password7</t>
-  </si>
-  <si>
-    <t>password8</t>
-  </si>
-  <si>
-    <t>password9</t>
-  </si>
-  <si>
-    <t>password10</t>
-  </si>
-  <si>
-    <t>password11</t>
-  </si>
-  <si>
-    <t>password12</t>
-  </si>
-  <si>
-    <t>password13</t>
-  </si>
-  <si>
     <t>ADMIN</t>
   </si>
   <si>
@@ -575,6 +497,84 @@
   </si>
   <si>
     <t>blocked</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>editor2</t>
+  </si>
+  <si>
+    <t>editor3</t>
+  </si>
+  <si>
+    <t>pass2</t>
+  </si>
+  <si>
+    <t>pass3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>user11</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>user13</t>
+  </si>
+  <si>
+    <t>pass4</t>
+  </si>
+  <si>
+    <t>pass5</t>
+  </si>
+  <si>
+    <t>pass6</t>
+  </si>
+  <si>
+    <t>pass7</t>
+  </si>
+  <si>
+    <t>pass8</t>
+  </si>
+  <si>
+    <t>pass9</t>
+  </si>
+  <si>
+    <t>pass10</t>
+  </si>
+  <si>
+    <t>pass11</t>
+  </si>
+  <si>
+    <t>pass12</t>
+  </si>
+  <si>
+    <t>pass13</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -934,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>51</v>
@@ -961,7 +961,7 @@
         <v>/static/img/posters/1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>CONCATENATE("INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('",B2,"', '",C2,"', ",D2,", '",E2,"', '",F2,"', ",G2,");")</f>
@@ -990,7 +990,7 @@
         <v>/static/img/posters/2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" ref="I3:I19" si="1">CONCATENATE("INSERT INTO movies (title, director, release_year, synopsis, poster_path, rating) VALUES ('",B3,"', '",C3,"', ",D3,", '",E3,"', '",F3,"', ",G3,");")</f>
@@ -1019,7 +1019,7 @@
         <v>/static/img/posters/3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1048,7 +1048,7 @@
         <v>/static/img/posters/4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1077,7 +1077,7 @@
         <v>/static/img/posters/5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1106,7 +1106,7 @@
         <v>/static/img/posters/6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1135,7 +1135,7 @@
         <v>/static/img/posters/7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1164,7 +1164,7 @@
         <v>/static/img/posters/8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1193,7 +1193,7 @@
         <v>/static/img/posters/9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1222,7 +1222,7 @@
         <v>/static/img/posters/10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1251,7 +1251,7 @@
         <v>/static/img/posters/11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1280,7 +1280,7 @@
         <v>/static/img/posters/12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1309,7 +1309,7 @@
         <v>/static/img/posters/13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1338,7 +1338,7 @@
         <v>/static/img/posters/14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1367,7 +1367,7 @@
         <v>/static/img/posters/15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1396,7 +1396,7 @@
         <v>/static/img/posters/16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1425,7 +1425,7 @@
         <v>/static/img/posters/17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1454,7 +1454,7 @@
         <v>/static/img/posters/18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1471,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA58C15A-7A8C-46DA-AFE5-EEEF529311AB}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,7 +1494,7 @@
         <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
         <v>51</v>
@@ -1502,236 +1502,236 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE("INSERT INTO accounts (user_name, password, role, blocked) VALUES ('",A2,"', SHA1('",B2,"'), '",C2,"', ",D2,");")</f>
-        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account1', SHA1('password1'), 'ADMIN', 0);</v>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('admin1', SHA1('pass1'), 'ADMIN', 0);</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F14" si="0">CONCATENATE("INSERT INTO accounts (user_name, password, role, blocked) VALUES ('",A3,"', SHA1('",B3,"'), '",C3,"', ",D3,");")</f>
-        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account2', SHA1('password2'), 'EDITOR', 0);</v>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('editor2', SHA1('pass2'), 'EDITOR', 0);</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account3', SHA1('password3'), 'EDITOR', 0);</v>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('editor3', SHA1('pass3'), 'EDITOR', 0);</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account4', SHA1('password4'), 'USER', 0);</v>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('user4', SHA1('pass4'), 'USER', 0);</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account5', SHA1('password5'), 'USER', 0);</v>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('user5', SHA1('pass5'), 'USER', 0);</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account6', SHA1('password6'), 'USER', 0);</v>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('user6', SHA1('pass6'), 'USER', 0);</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account7', SHA1('password7'), 'USER', 0);</v>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('user7', SHA1('pass7'), 'USER', 0);</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account8', SHA1('password8'), 'USER', 0);</v>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('user8', SHA1('pass8'), 'USER', 0);</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account9', SHA1('password9'), 'USER', 0);</v>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('user9', SHA1('pass9'), 'USER', 0);</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account10', SHA1('password10'), 'USER', 0);</v>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('user10', SHA1('pass10'), 'USER', 0);</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account11', SHA1('password11'), 'USER', 0);</v>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('user11', SHA1('pass11'), 'USER', 0);</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account12', SHA1('password12'), 'USER', 0);</v>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('user12', SHA1('pass12'), 'USER', 0);</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('account13', SHA1('password13'), 'USER', 0);</v>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('user13', SHA1('pass13'), 'USER', 0);</v>
       </c>
     </row>
   </sheetData>
@@ -1761,13 +1761,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>51</v>
@@ -1781,10 +1781,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE("INSERT INTO comments (movie_id, account_id, date_time, text) VALUES (",A2,", ",B2,", '",C2,"', '",D2,"');")</f>
@@ -1799,10 +1799,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F37" si="0">CONCATENATE("INSERT INTO comments (movie_id, account_id, date_time, text) VALUES (",A3,", ",B3,", '",C3,"', '",D3,"');")</f>
@@ -1817,10 +1817,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -1835,10 +1835,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -1853,10 +1853,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -1871,10 +1871,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -1889,10 +1889,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -1907,10 +1907,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -1925,10 +1925,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -1943,10 +1943,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -1961,10 +1961,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -1979,10 +1979,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -1997,10 +1997,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -2015,10 +2015,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -2033,10 +2033,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -2051,10 +2051,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -2069,10 +2069,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -2087,10 +2087,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -2105,10 +2105,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -2123,10 +2123,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -2141,10 +2141,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -2159,10 +2159,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -2177,10 +2177,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -2195,10 +2195,10 @@
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -2213,10 +2213,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -2231,10 +2231,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -2249,10 +2249,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -2267,10 +2267,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -2285,10 +2285,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -2303,10 +2303,10 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -2321,10 +2321,10 @@
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -2339,10 +2339,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -2357,10 +2357,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -2375,10 +2375,10 @@
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -2393,10 +2393,10 @@
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -2411,10 +2411,10 @@
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -2447,10 +2447,10 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
         <v>51</v>
@@ -4592,10 +4592,10 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/sql/data.xlsx
+++ b/sql/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaLearn\Java Web Development\2020-11-14 - Final Project\MovieRating\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64753EE1-3ADC-423E-9AC0-B4D15168E1A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F2633-5312-40BA-8FCA-59472A42203B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="213">
   <si>
     <t>title</t>
   </si>
@@ -649,6 +649,24 @@
   </si>
   <si>
     <t>9.3</t>
+  </si>
+  <si>
+    <t>maks_fin_a</t>
+  </si>
+  <si>
+    <t>maks_fin_e</t>
+  </si>
+  <si>
+    <t>maks_fin_u</t>
+  </si>
+  <si>
+    <t>sc2a</t>
+  </si>
+  <si>
+    <t>sc2e</t>
+  </si>
+  <si>
+    <t>sc2u</t>
   </si>
 </sst>
 </file>
@@ -1599,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA58C15A-7A8C-46DA-AFE5-EEEF529311AB}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F23" si="0">CONCATENATE("INSERT INTO accounts (user_name, password, role, blocked) VALUES ('",A3,"', SHA1('",B3,"'), '",C3,"', ",D3,");")</f>
+        <f t="shared" ref="F3:F26" si="0">CONCATENATE("INSERT INTO accounts (user_name, password, role, blocked) VALUES ('",A3,"', SHA1('",B3,"'), '",C3,"', ",D3,");")</f>
         <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('editor2', SHA1('pass2'), 'EDITOR', 0);</v>
       </c>
     </row>
@@ -2024,6 +2042,60 @@
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('maks_u', SHA1('maksu'), 'USER', 0);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('maks_fin_a', SHA1('sc2a'), 'ADMIN', 0);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('maks_fin_e', SHA1('sc2e'), 'EDITOR', 0);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accounts (user_name, password, role, blocked) VALUES ('maks_fin_u', SHA1('sc2u'), 'USER', 0);</v>
       </c>
     </row>
   </sheetData>
@@ -2723,7 +2795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76397F2-D748-478D-8D63-8E0774981281}">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
@@ -2786,7 +2858,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" ca="1" si="1">RANDBETWEEN(7,10)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2805,7 +2877,7 @@
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2824,7 +2896,7 @@
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2862,7 +2934,7 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2881,7 +2953,7 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2900,7 +2972,7 @@
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2919,7 +2991,7 @@
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2938,7 +3010,7 @@
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2957,7 +3029,7 @@
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2976,7 +3048,7 @@
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2995,7 +3067,7 @@
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3014,7 +3086,7 @@
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3033,7 +3105,7 @@
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -3052,7 +3124,7 @@
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3071,7 +3143,7 @@
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3090,7 +3162,7 @@
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3109,7 +3181,7 @@
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -3128,7 +3200,7 @@
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3166,7 +3238,7 @@
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3185,7 +3257,7 @@
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -3223,7 +3295,7 @@
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -3242,7 +3314,7 @@
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -3261,7 +3333,7 @@
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -3280,7 +3352,7 @@
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -3299,7 +3371,7 @@
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -3318,7 +3390,7 @@
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3337,7 +3409,7 @@
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -3356,7 +3428,7 @@
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -3375,7 +3447,7 @@
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -3394,7 +3466,7 @@
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -3432,7 +3504,7 @@
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3451,7 +3523,7 @@
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3489,7 +3561,7 @@
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3527,7 +3599,7 @@
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3546,7 +3618,7 @@
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3565,7 +3637,7 @@
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3603,7 +3675,7 @@
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3622,7 +3694,7 @@
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3641,7 +3713,7 @@
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3660,7 +3732,7 @@
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3679,7 +3751,7 @@
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3717,7 +3789,7 @@
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -3736,7 +3808,7 @@
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3755,7 +3827,7 @@
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3774,7 +3846,7 @@
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -3793,7 +3865,7 @@
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -3812,7 +3884,7 @@
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -3831,7 +3903,7 @@
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -3850,7 +3922,7 @@
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -3869,7 +3941,7 @@
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -3888,7 +3960,7 @@
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -3907,7 +3979,7 @@
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -3926,7 +3998,7 @@
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -3945,7 +4017,7 @@
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -3964,7 +4036,7 @@
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -3983,7 +4055,7 @@
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -4002,7 +4074,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O121" ca="1" si="3">RANDBETWEEN(7,10)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -4040,7 +4112,7 @@
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -4059,7 +4131,7 @@
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -4078,7 +4150,7 @@
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -4097,7 +4169,7 @@
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -4116,7 +4188,7 @@
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -4135,7 +4207,7 @@
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -4154,7 +4226,7 @@
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -4173,7 +4245,7 @@
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -4249,7 +4321,7 @@
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -4268,7 +4340,7 @@
       </c>
       <c r="O81">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -4287,7 +4359,7 @@
       </c>
       <c r="O82">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
@@ -4306,7 +4378,7 @@
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -4325,7 +4397,7 @@
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -4344,7 +4416,7 @@
       </c>
       <c r="O85">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -4363,7 +4435,7 @@
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -4382,7 +4454,7 @@
       </c>
       <c r="O87">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -4401,7 +4473,7 @@
       </c>
       <c r="O88">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -4420,7 +4492,7 @@
       </c>
       <c r="O89">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -4458,7 +4530,7 @@
       </c>
       <c r="O91">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -4477,7 +4549,7 @@
       </c>
       <c r="O92">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -4496,7 +4568,7 @@
       </c>
       <c r="O93">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -4534,7 +4606,7 @@
       </c>
       <c r="O95">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -4553,7 +4625,7 @@
       </c>
       <c r="O96">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -4572,7 +4644,7 @@
       </c>
       <c r="O97">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -4610,7 +4682,7 @@
       </c>
       <c r="O99">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -4629,7 +4701,7 @@
       </c>
       <c r="O100">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -4648,7 +4720,7 @@
       </c>
       <c r="O101">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -4667,7 +4739,7 @@
       </c>
       <c r="O102">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -4686,7 +4758,7 @@
       </c>
       <c r="O103">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -4705,7 +4777,7 @@
       </c>
       <c r="O104">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -4724,7 +4796,7 @@
       </c>
       <c r="O105">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -4743,7 +4815,7 @@
       </c>
       <c r="O106">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -4762,7 +4834,7 @@
       </c>
       <c r="O107">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -4781,7 +4853,7 @@
       </c>
       <c r="O108">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -4819,7 +4891,7 @@
       </c>
       <c r="O110">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -4838,7 +4910,7 @@
       </c>
       <c r="O111">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -4857,7 +4929,7 @@
       </c>
       <c r="O112">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -4876,7 +4948,7 @@
       </c>
       <c r="O113">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -4914,7 +4986,7 @@
       </c>
       <c r="O115">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -4933,7 +5005,7 @@
       </c>
       <c r="O116">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -4971,7 +5043,7 @@
       </c>
       <c r="O118">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -4990,7 +5062,7 @@
       </c>
       <c r="O119">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -5009,7 +5081,7 @@
       </c>
       <c r="O120">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">

--- a/sql/data.xlsx
+++ b/sql/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaLearn\Java Web Development\2020-11-14 - Final Project\MovieRating\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F2633-5312-40BA-8FCA-59472A42203B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC721E69-D505-46FB-BA44-B0E4144C38A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,7 +1620,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" ca="1" si="1">RANDBETWEEN(7,10)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O78">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="O81">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="O88">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="O89">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="O91">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="O92">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="O94">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="O96">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O97">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="O98">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="O99">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="O101">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="O102">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="O103">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="O104">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="O105">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="O106">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="O107">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="O108">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="O109">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="O110">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="O112">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="O113">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="O115">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="O116">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="O117">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="O118">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="O119">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="O120">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
